--- a/medicine/Mort/Institut_médico-légal_de_Paris/Institut_médico-légal_de_Paris.xlsx
+++ b/medicine/Mort/Institut_médico-légal_de_Paris/Institut_médico-légal_de_Paris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_m%C3%A9dico-l%C3%A9gal_de_Paris</t>
+          <t>Institut_médico-légal_de_Paris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'institut médico-légal (IML) de Paris est une morgue ouverte en 1923 au 2 place Mazas, le long du quai de la Rapée, dans le 12e arrondissement de Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_m%C3%A9dico-l%C3%A9gal_de_Paris</t>
+          <t>Institut_médico-légal_de_Paris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dépendant de la préfecture de police de Paris, il reçoit les corps des défunts dans les cas suivants :
 décès sur la voie publique, accidentel ou non ;
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_m%C3%A9dico-l%C3%A9gal_de_Paris</t>
+          <t>Institut_médico-légal_de_Paris</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,13 +562,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1868, Haussmann fait construire une morgue sur la pointe est de l'île de la Cité, quai de l'Archevêché (l'actuel square de l'Île-de-France) à l'emplacement d'une ancienne promenade dénommée « le Terrain ». Le bâtiment, qui avait allure d'un petit temple grec, remplaça lui-même une ancienne morgue située à proximité quai du Marché-Neuf[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1868, Haussmann fait construire une morgue sur la pointe est de l'île de la Cité, quai de l'Archevêché (l'actuel square de l'Île-de-France) à l'emplacement d'une ancienne promenade dénommée « le Terrain ». Le bâtiment, qui avait allure d'un petit temple grec, remplaça lui-même une ancienne morgue située à proximité quai du Marché-Neuf.
 Celle-ci constitue, à l'époque, une des sorties les plus en vogue de la capitale : les cadavres à identifier (notamment des victimes de noyades), étendus sur douze tables inclinées de marbre noir, y sont exposés pendant trois jours, dans une salle séparée du public par une vitre. 
-En 1907, l'entrée de la morgue est interdite au public par un décret du préfet Lépine : désormais seules les personnes munies d'une autorisation spéciale peuvent y pénétrer[2].
-L'établissement actuel du quai de La Rapée, devenu institut médico-légal en remplacement de l'ancienne morgue, a été bâti au plus près du viaduc du quai de la Rapée, sur un terrain de 2 000 m2 appartenant à la Ville de Paris. Il est inauguré en 1923, dix ans après l'ouverture du chantier, celui-ci ayant été retardé par la Première Guerre mondiale. C'est un bâtiment en briques conçu par l'architecte Albert Tournaire, dont le nom est ensuite donné au square situé à proximité[1],[2].
-Selon le rapport d'une mission interministérielle chargée d'évaluer la médecine légale en Île-de-France en 2016, l'IML ne dispose pas « des moyens modernes nécessaires à une activité d'excellence »[3].
+En 1907, l'entrée de la morgue est interdite au public par un décret du préfet Lépine : désormais seules les personnes munies d'une autorisation spéciale peuvent y pénétrer.
+L'établissement actuel du quai de La Rapée, devenu institut médico-légal en remplacement de l'ancienne morgue, a été bâti au plus près du viaduc du quai de la Rapée, sur un terrain de 2 000 m2 appartenant à la Ville de Paris. Il est inauguré en 1923, dix ans après l'ouverture du chantier, celui-ci ayant été retardé par la Première Guerre mondiale. C'est un bâtiment en briques conçu par l'architecte Albert Tournaire, dont le nom est ensuite donné au square situé à proximité,.
+Selon le rapport d'une mission interministérielle chargée d'évaluer la médecine légale en Île-de-France en 2016, l'IML ne dispose pas « des moyens modernes nécessaires à une activité d'excellence ».
 </t>
         </is>
       </c>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Institut_m%C3%A9dico-l%C3%A9gal_de_Paris</t>
+          <t>Institut_médico-légal_de_Paris</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,9 +599,11 @@
           <t>Chiffres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les informations fournies par la préfecture de police de Paris, l'IML reçoit 3 000 corps en moyenne chaque année, sur lesquels 2 000 autopsies et 1 000 examens externes (examen sans incision) sont pratiqués, soit six à neuf autopsies par jour[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les informations fournies par la préfecture de police de Paris, l'IML reçoit 3 000 corps en moyenne chaque année, sur lesquels 2 000 autopsies et 1 000 examens externes (examen sans incision) sont pratiqués, soit six à neuf autopsies par jour.
 </t>
         </is>
       </c>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Institut_m%C3%A9dico-l%C3%A9gal_de_Paris</t>
+          <t>Institut_médico-légal_de_Paris</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,9 +632,11 @@
           <t>Personnel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'IML emploie en tout une quarantaine de personnes[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'IML emploie en tout une quarantaine de personnes :
 un directeur ;
 un directeur-adjoint (également médecin légiste) ;
 un secrétaire-général ;
